--- a/Results/Simple/Full-Summaries-DC_color.xlsx
+++ b/Results/Simple/Full-Summaries-DC_color.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="44">
   <si>
     <t xml:space="preserve">SUMMARY TABLE</t>
   </si>
@@ -173,21 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">SHVR Wins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ZIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ZIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GDX</t>
   </si>
 </sst>
 </file>
@@ -771,7 +756,2195 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$20:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="58853000"/>
+        <c:axId val="27575948"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58853000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27575948"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27575948"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58853000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$20:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-346</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-370</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="30369581"/>
+        <c:axId val="87080014"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30369581"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87080014"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87080014"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30369581"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$57:$Q$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="18590682"/>
+        <c:axId val="34627564"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="18590682"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34627564"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34627564"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18590682"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$57:$U$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="15747077"/>
+        <c:axId val="4900708"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15747077"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4900708"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4900708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15747077"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>BSE: AA-vs-ZIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$94:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="4059334"/>
+        <c:axId val="13375371"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="4059334"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13375371"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13375371"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4059334"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>TBSE: AA-vs-ZIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$94:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="38368197"/>
+        <c:axId val="39125300"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="38368197"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39125300"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39125300"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38368197"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>BSE: GDX-vs-ZIP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="94029796"/>
+        <c:axId val="29782849"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94029796"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29782849"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29782849"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94029796"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>TBSE: GDX-vs-ZIP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-344</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-386</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="65727573"/>
+        <c:axId val="42131726"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65727573"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42131726"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42131726"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65727573"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>BSE: AA-vs-ZIP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$57:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="2188598"/>
+        <c:axId val="29239741"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2188598"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29239741"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29239741"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2188598"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -918,11 +3091,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="52131475"/>
-        <c:axId val="18297971"/>
+        <c:axId val="77929029"/>
+        <c:axId val="91296132"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52131475"/>
+        <c:axId val="77929029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,14 +3127,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18297971"/>
+        <c:crossAx val="91296132"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18297971"/>
+        <c:axId val="91296132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1005,7 +3178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52131475"/>
+        <c:crossAx val="77929029"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1033,7 +3206,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1180,11 +3353,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="57749075"/>
-        <c:axId val="70053905"/>
+        <c:axId val="49673192"/>
+        <c:axId val="69959451"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57749075"/>
+        <c:axId val="49673192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,14 +3389,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70053905"/>
+        <c:crossAx val="69959451"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70053905"/>
+        <c:axId val="69959451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +3438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57749075"/>
+        <c:crossAx val="49673192"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1293,7 +3466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1440,11 +3613,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="66178701"/>
-        <c:axId val="9124403"/>
+        <c:axId val="66531135"/>
+        <c:axId val="24257659"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66178701"/>
+        <c:axId val="66531135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,14 +3649,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9124403"/>
+        <c:crossAx val="24257659"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9124403"/>
+        <c:axId val="24257659"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +3698,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66178701"/>
+        <c:crossAx val="66531135"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1553,7 +3726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1694,11 +3867,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="26116318"/>
-        <c:axId val="51242449"/>
+        <c:axId val="11073158"/>
+        <c:axId val="89519070"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26116318"/>
+        <c:axId val="11073158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,14 +3899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51242449"/>
+        <c:crossAx val="89519070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51242449"/>
+        <c:axId val="89519070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +3943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26116318"/>
+        <c:crossAx val="11073158"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1797,7 +3970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1938,11 +4111,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="97669508"/>
-        <c:axId val="86905132"/>
+        <c:axId val="22369988"/>
+        <c:axId val="50346059"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97669508"/>
+        <c:axId val="22369988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,14 +4143,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86905132"/>
+        <c:crossAx val="50346059"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86905132"/>
+        <c:axId val="50346059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +4187,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97669508"/>
+        <c:crossAx val="22369988"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2041,7 +4214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart135.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2182,11 +4355,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="30706668"/>
-        <c:axId val="66535430"/>
+        <c:axId val="49630331"/>
+        <c:axId val="2498623"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30706668"/>
+        <c:axId val="49630331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,14 +4387,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66535430"/>
+        <c:crossAx val="2498623"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66535430"/>
+        <c:axId val="2498623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +4431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30706668"/>
+        <c:crossAx val="49630331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2285,7 +4458,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart136.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2426,11 +4599,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22671026"/>
-        <c:axId val="31902973"/>
+        <c:axId val="1588380"/>
+        <c:axId val="7267180"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22671026"/>
+        <c:axId val="1588380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,14 +4631,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31902973"/>
+        <c:crossAx val="7267180"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31902973"/>
+        <c:axId val="7267180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +4675,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22671026"/>
+        <c:crossAx val="1588380"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2529,7 +4702,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2670,11 +4843,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58093096"/>
-        <c:axId val="77321437"/>
+        <c:axId val="97498872"/>
+        <c:axId val="33577446"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58093096"/>
+        <c:axId val="97498872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +4875,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77321437"/>
+        <c:crossAx val="33577446"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77321437"/>
+        <c:axId val="33577446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2746,7 +4919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58093096"/>
+        <c:crossAx val="97498872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2773,7 +4946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2914,11 +5087,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="85034752"/>
-        <c:axId val="86875564"/>
+        <c:axId val="74965854"/>
+        <c:axId val="58194088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85034752"/>
+        <c:axId val="74965854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,14 +5119,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86875564"/>
+        <c:crossAx val="58194088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86875564"/>
+        <c:axId val="58194088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +5163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85034752"/>
+        <c:crossAx val="74965854"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,7 +5190,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3158,11 +5331,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="21580482"/>
-        <c:axId val="42935708"/>
+        <c:axId val="41115991"/>
+        <c:axId val="95273406"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21580482"/>
+        <c:axId val="41115991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,14 +5363,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42935708"/>
+        <c:crossAx val="95273406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42935708"/>
+        <c:axId val="95273406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +5407,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21580482"/>
+        <c:crossAx val="41115991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3261,7 +5434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3402,11 +5575,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58751898"/>
-        <c:axId val="13490161"/>
+        <c:axId val="8447454"/>
+        <c:axId val="91214516"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58751898"/>
+        <c:axId val="8447454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,14 +5607,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13490161"/>
+        <c:crossAx val="91214516"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13490161"/>
+        <c:axId val="91214516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +5651,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58751898"/>
+        <c:crossAx val="8447454"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3505,7 +5678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart141.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3646,11 +5819,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="84515657"/>
-        <c:axId val="55112485"/>
+        <c:axId val="74201176"/>
+        <c:axId val="82376295"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84515657"/>
+        <c:axId val="74201176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,14 +5851,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55112485"/>
+        <c:crossAx val="82376295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55112485"/>
+        <c:axId val="82376295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3722,7 +5895,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84515657"/>
+        <c:crossAx val="74201176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3749,7 +5922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart142.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3890,11 +6063,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="55668846"/>
-        <c:axId val="15922549"/>
+        <c:axId val="93215863"/>
+        <c:axId val="21182868"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55668846"/>
+        <c:axId val="93215863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3922,14 +6095,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15922549"/>
+        <c:crossAx val="21182868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15922549"/>
+        <c:axId val="21182868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +6139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55668846"/>
+        <c:crossAx val="93215863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3993,7 +6166,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart143.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4134,11 +6307,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39207251"/>
-        <c:axId val="54444459"/>
+        <c:axId val="5805525"/>
+        <c:axId val="30388914"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39207251"/>
+        <c:axId val="5805525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,14 +6339,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54444459"/>
+        <c:crossAx val="30388914"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54444459"/>
+        <c:axId val="30388914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +6383,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39207251"/>
+        <c:crossAx val="5805525"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4237,7 +6410,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart144.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4378,11 +6551,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3737391"/>
-        <c:axId val="44247313"/>
+        <c:axId val="59842964"/>
+        <c:axId val="6056054"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3737391"/>
+        <c:axId val="59842964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,14 +6583,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44247313"/>
+        <c:crossAx val="6056054"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44247313"/>
+        <c:axId val="6056054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4454,7 +6627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3737391"/>
+        <c:crossAx val="59842964"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4481,7 +6654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4622,11 +6795,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25718648"/>
-        <c:axId val="57421975"/>
+        <c:axId val="83568180"/>
+        <c:axId val="23146585"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25718648"/>
+        <c:axId val="83568180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,14 +6827,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57421975"/>
+        <c:crossAx val="23146585"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57421975"/>
+        <c:axId val="23146585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +6871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25718648"/>
+        <c:crossAx val="83568180"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4725,7 +6898,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4866,11 +7039,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="6661154"/>
-        <c:axId val="75243042"/>
+        <c:axId val="23485483"/>
+        <c:axId val="80188557"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6661154"/>
+        <c:axId val="23485483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,14 +7071,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75243042"/>
+        <c:crossAx val="80188557"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75243042"/>
+        <c:axId val="80188557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,7 +7115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6661154"/>
+        <c:crossAx val="23485483"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4969,7 +7142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5110,11 +7283,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="38888315"/>
-        <c:axId val="71461542"/>
+        <c:axId val="70609307"/>
+        <c:axId val="32350026"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38888315"/>
+        <c:axId val="70609307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,14 +7315,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71461542"/>
+        <c:crossAx val="32350026"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71461542"/>
+        <c:axId val="32350026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,7 +7359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38888315"/>
+        <c:crossAx val="70609307"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5213,7 +7386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5354,11 +7527,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="10429084"/>
-        <c:axId val="30486948"/>
+        <c:axId val="36383153"/>
+        <c:axId val="27735305"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10429084"/>
+        <c:axId val="36383153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5386,14 +7559,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30486948"/>
+        <c:crossAx val="27735305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30486948"/>
+        <c:axId val="27735305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,7 +7603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10429084"/>
+        <c:crossAx val="36383153"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5457,7 +7630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5598,11 +7771,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92494457"/>
-        <c:axId val="23575341"/>
+        <c:axId val="18052589"/>
+        <c:axId val="70788492"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92494457"/>
+        <c:axId val="18052589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,14 +7803,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23575341"/>
+        <c:crossAx val="70788492"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23575341"/>
+        <c:axId val="70788492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +7847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92494457"/>
+        <c:crossAx val="18052589"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5701,7 +7874,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5842,11 +8015,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="82061980"/>
-        <c:axId val="55387623"/>
+        <c:axId val="80180562"/>
+        <c:axId val="84026352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82061980"/>
+        <c:axId val="80180562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,14 +8047,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55387623"/>
+        <c:crossAx val="84026352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55387623"/>
+        <c:axId val="84026352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +8091,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82061980"/>
+        <c:crossAx val="80180562"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5940,2194 +8113,6 @@
     </a:solidFill>
     <a:ln>
       <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart91.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$20:$Q$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="72580125"/>
-        <c:axId val="71887956"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="72580125"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71887956"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71887956"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="72580125"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart92.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$20:$U$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-216</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-274</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-356</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-346</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-280</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-370</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-376</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-402</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-350</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-352</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-366</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-330</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="81487801"/>
-        <c:axId val="29983991"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="81487801"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="29983991"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29983991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81487801"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart93.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$57:$Q$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="93778694"/>
-        <c:axId val="39570924"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="93778694"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39570924"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39570924"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93778694"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart94.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$57:$U$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-140</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="38716647"/>
-        <c:axId val="76406491"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38716647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="76406491"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="76406491"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38716647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart95.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>BSE: AA-vs-ZIC</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$94:$F$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="38250832"/>
-        <c:axId val="7932848"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38250832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="7932848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="7932848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38250832"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart96.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>TBSE: AA-vs-ZIC</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$94:$J$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="61449746"/>
-        <c:axId val="26898798"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="61449746"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26898798"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="26898798"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61449746"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart97.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>BSE: GDX-vs-ZIP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$20:$F$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="34318204"/>
-        <c:axId val="62719867"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="34318204"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62719867"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="62719867"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34318204"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart98.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>TBSE: GDX-vs-ZIP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$20:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="23557760"/>
-        <c:axId val="71924076"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="23557760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71924076"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71924076"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23557760"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>BSE: AA-vs-ZIP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$57:$F$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="84342376"/>
-        <c:axId val="45820080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="84342376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45820080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="45820080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84342376"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -9043,10 +9028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AK298"/>
+  <dimension ref="A2:AF298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG210" activeCellId="0" sqref="AG210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9204,11 +9189,11 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="12" t="n">
         <f aca="false">H114</f>
-        <v>0</v>
+        <v>8430</v>
       </c>
       <c r="AE7" s="13" t="n">
         <f aca="false">I114</f>
-        <v>9500</v>
+        <v>1070</v>
       </c>
       <c r="AF7" s="3"/>
     </row>
@@ -9294,11 +9279,11 @@
       <c r="AC10" s="9"/>
       <c r="AD10" s="14" t="n">
         <f aca="false">H40</f>
-        <v>0</v>
+        <v>2721</v>
       </c>
       <c r="AE10" s="12" t="n">
         <f aca="false">I40</f>
-        <v>9500</v>
+        <v>6779</v>
       </c>
       <c r="AF10" s="3"/>
     </row>
@@ -9641,14 +9626,16 @@
         <v>-500</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="34" t="n">
+        <v>233</v>
+      </c>
       <c r="I20" s="35" t="n">
         <f aca="false">SUM(500-H20)</f>
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="J20" s="34" t="n">
         <f aca="false">H20-I20</f>
-        <v>-500</v>
+        <v>-34</v>
       </c>
       <c r="K20" s="36"/>
       <c r="N20" s="37" t="s">
@@ -9719,14 +9706,16 @@
         <v>-500</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="40" t="n">
+        <v>222</v>
+      </c>
       <c r="I21" s="35" t="n">
         <f aca="false">SUM(500-H21)</f>
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="J21" s="34" t="n">
         <f aca="false">H21-I21</f>
-        <v>-500</v>
+        <v>-56</v>
       </c>
       <c r="K21" s="36"/>
       <c r="N21" s="37" t="s">
@@ -9797,14 +9786,16 @@
         <v>-500</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="34" t="n">
+        <v>211</v>
+      </c>
       <c r="I22" s="35" t="n">
         <f aca="false">SUM(500-H22)</f>
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="J22" s="34" t="n">
         <f aca="false">H22-I22</f>
-        <v>-500</v>
+        <v>-78</v>
       </c>
       <c r="K22" s="36"/>
       <c r="N22" s="37" t="s">
@@ -9875,14 +9866,16 @@
         <v>-500</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="43" t="n">
+        <v>215</v>
+      </c>
       <c r="I23" s="35" t="n">
         <f aca="false">SUM(500-H23)</f>
-        <v>500</v>
+        <v>285</v>
       </c>
       <c r="J23" s="34" t="n">
         <f aca="false">H23-I23</f>
-        <v>-500</v>
+        <v>-70</v>
       </c>
       <c r="K23" s="36"/>
       <c r="N23" s="37" t="s">
@@ -9953,14 +9946,16 @@
         <v>-500</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="34" t="n">
+        <v>213</v>
+      </c>
       <c r="I24" s="35" t="n">
         <f aca="false">SUM(500-H24)</f>
-        <v>500</v>
+        <v>287</v>
       </c>
       <c r="J24" s="34" t="n">
         <f aca="false">H24-I24</f>
-        <v>-500</v>
+        <v>-74</v>
       </c>
       <c r="K24" s="36"/>
       <c r="N24" s="37" t="s">
@@ -10015,14 +10010,16 @@
         <v>-500</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="34" t="n">
+        <v>175</v>
+      </c>
       <c r="I25" s="35" t="n">
         <f aca="false">SUM(500-H25)</f>
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="J25" s="34" t="n">
         <f aca="false">H25-I25</f>
-        <v>-500</v>
+        <v>-150</v>
       </c>
       <c r="K25" s="36"/>
       <c r="N25" s="37" t="s">
@@ -10093,14 +10090,16 @@
         <v>-500</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="34" t="n">
+        <v>157</v>
+      </c>
       <c r="I26" s="35" t="n">
         <f aca="false">SUM(500-H26)</f>
-        <v>500</v>
+        <v>343</v>
       </c>
       <c r="J26" s="34" t="n">
         <f aca="false">H26-I26</f>
-        <v>-500</v>
+        <v>-186</v>
       </c>
       <c r="K26" s="36"/>
       <c r="N26" s="37" t="s">
@@ -10145,14 +10144,16 @@
         <v>-500</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="34" t="n">
+        <v>158</v>
+      </c>
       <c r="I27" s="35" t="n">
         <f aca="false">SUM(500-H27)</f>
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="J27" s="34" t="n">
         <f aca="false">H27-I27</f>
-        <v>-500</v>
+        <v>-184</v>
       </c>
       <c r="K27" s="36"/>
       <c r="N27" s="37" t="s">
@@ -10197,14 +10198,16 @@
         <v>-500</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="34" t="n">
+        <v>175</v>
+      </c>
       <c r="I28" s="35" t="n">
         <f aca="false">SUM(500-H28)</f>
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="J28" s="34" t="n">
         <f aca="false">H28-I28</f>
-        <v>-500</v>
+        <v>-150</v>
       </c>
       <c r="K28" s="36"/>
       <c r="N28" s="37" t="s">
@@ -10249,14 +10252,16 @@
         <v>-500</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="34" t="n">
+        <v>118</v>
+      </c>
       <c r="I29" s="35" t="n">
         <f aca="false">SUM(500-H29)</f>
-        <v>500</v>
+        <v>382</v>
       </c>
       <c r="J29" s="34" t="n">
         <f aca="false">H29-I29</f>
-        <v>-500</v>
+        <v>-264</v>
       </c>
       <c r="K29" s="36"/>
       <c r="N29" s="37" t="s">
@@ -10301,14 +10306,16 @@
         <v>-500</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="34"/>
+      <c r="H30" s="34" t="n">
+        <v>137</v>
+      </c>
       <c r="I30" s="35" t="n">
         <f aca="false">SUM(500-H30)</f>
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="J30" s="34" t="n">
         <f aca="false">H30-I30</f>
-        <v>-500</v>
+        <v>-226</v>
       </c>
       <c r="K30" s="36"/>
       <c r="N30" s="37" t="s">
@@ -10352,14 +10359,16 @@
         <v>-500</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="34"/>
+      <c r="H31" s="34" t="n">
+        <v>91</v>
+      </c>
       <c r="I31" s="35" t="n">
         <f aca="false">SUM(500-H31)</f>
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="J31" s="34" t="n">
         <f aca="false">H31-I31</f>
-        <v>-500</v>
+        <v>-318</v>
       </c>
       <c r="K31" s="36"/>
       <c r="N31" s="37" t="s">
@@ -10403,14 +10412,16 @@
         <v>-500</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="34"/>
+      <c r="H32" s="34" t="n">
+        <v>77</v>
+      </c>
       <c r="I32" s="35" t="n">
         <f aca="false">SUM(500-H32)</f>
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="J32" s="34" t="n">
         <f aca="false">H32-I32</f>
-        <v>-500</v>
+        <v>-346</v>
       </c>
       <c r="K32" s="36"/>
       <c r="N32" s="37" t="s">
@@ -10454,14 +10465,16 @@
         <v>-500</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="34"/>
+      <c r="H33" s="34" t="n">
+        <v>67</v>
+      </c>
       <c r="I33" s="35" t="n">
         <f aca="false">SUM(500-H33)</f>
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="J33" s="34" t="n">
         <f aca="false">H33-I33</f>
-        <v>-500</v>
+        <v>-366</v>
       </c>
       <c r="K33" s="36"/>
       <c r="N33" s="37" t="s">
@@ -10505,14 +10518,16 @@
         <v>-500</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="34" t="n">
+        <v>117</v>
+      </c>
       <c r="I34" s="35" t="n">
         <f aca="false">SUM(500-H34)</f>
-        <v>500</v>
+        <v>383</v>
       </c>
       <c r="J34" s="34" t="n">
         <f aca="false">H34-I34</f>
-        <v>-500</v>
+        <v>-266</v>
       </c>
       <c r="K34" s="36"/>
       <c r="N34" s="37" t="s">
@@ -10556,14 +10571,16 @@
         <v>-500</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="34" t="n">
+        <v>78</v>
+      </c>
       <c r="I35" s="35" t="n">
         <f aca="false">SUM(500-H35)</f>
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="J35" s="34" t="n">
         <f aca="false">H35-I35</f>
-        <v>-500</v>
+        <v>-344</v>
       </c>
       <c r="K35" s="36"/>
       <c r="N35" s="37" t="s">
@@ -10607,14 +10624,16 @@
         <v>-500</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="34"/>
+      <c r="H36" s="34" t="n">
+        <v>57</v>
+      </c>
       <c r="I36" s="35" t="n">
         <f aca="false">SUM(500-H36)</f>
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="J36" s="34" t="n">
         <f aca="false">H36-I36</f>
-        <v>-500</v>
+        <v>-386</v>
       </c>
       <c r="K36" s="36"/>
       <c r="N36" s="37" t="s">
@@ -10658,14 +10677,16 @@
         <v>-500</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="34" t="n">
+        <v>91</v>
+      </c>
       <c r="I37" s="35" t="n">
         <f aca="false">SUM(500-H37)</f>
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="J37" s="34" t="n">
         <f aca="false">H37-I37</f>
-        <v>-500</v>
+        <v>-318</v>
       </c>
       <c r="K37" s="36"/>
       <c r="N37" s="37" t="s">
@@ -10709,14 +10730,16 @@
         <v>-500</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="34"/>
+      <c r="H38" s="34" t="n">
+        <v>129</v>
+      </c>
       <c r="I38" s="35" t="n">
         <f aca="false">SUM(500-H38)</f>
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="J38" s="34" t="n">
         <f aca="false">H38-I38</f>
-        <v>-500</v>
+        <v>-242</v>
       </c>
       <c r="K38" s="36"/>
       <c r="N38" s="37" t="s">
@@ -10786,15 +10809,15 @@
       <c r="G40" s="20"/>
       <c r="H40" s="43" t="n">
         <f aca="false">SUM(H20:H38)</f>
-        <v>0</v>
+        <v>2721</v>
       </c>
       <c r="I40" s="51" t="n">
         <f aca="false">SUM(I20:I38)</f>
-        <v>9500</v>
+        <v>6779</v>
       </c>
       <c r="J40" s="50" t="n">
         <f aca="false">H40-I40</f>
-        <v>-9500</v>
+        <v>-4058</v>
       </c>
       <c r="K40" s="52"/>
       <c r="N40" s="37" t="s">
@@ -12672,14 +12695,16 @@
         <v>-500</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6" t="n">
+        <v>436</v>
+      </c>
       <c r="I94" s="11" t="n">
         <f aca="false">SUM(500-H94)</f>
-        <v>500</v>
+        <v>64</v>
       </c>
       <c r="J94" s="11" t="n">
         <f aca="false">H94-I94</f>
-        <v>-500</v>
+        <v>372</v>
       </c>
       <c r="K94" s="11"/>
       <c r="M94" s="18"/>
@@ -12724,14 +12749,16 @@
         <v>-500</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="6" t="n">
+        <v>429</v>
+      </c>
       <c r="I95" s="11" t="n">
         <f aca="false">SUM(500-H95)</f>
-        <v>500</v>
+        <v>71</v>
       </c>
       <c r="J95" s="11" t="n">
         <f aca="false">H95-I95</f>
-        <v>-500</v>
+        <v>358</v>
       </c>
       <c r="K95" s="11"/>
       <c r="M95" s="18"/>
@@ -12776,14 +12803,16 @@
         <v>-500</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6" t="n">
+        <v>431</v>
+      </c>
       <c r="I96" s="11" t="n">
         <f aca="false">SUM(500-H96)</f>
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="J96" s="11" t="n">
         <f aca="false">H96-I96</f>
-        <v>-500</v>
+        <v>362</v>
       </c>
       <c r="K96" s="11"/>
       <c r="M96" s="18"/>
@@ -12828,14 +12857,16 @@
         <v>-500</v>
       </c>
       <c r="G97" s="75"/>
-      <c r="H97" s="12"/>
+      <c r="H97" s="12" t="n">
+        <v>429</v>
+      </c>
       <c r="I97" s="11" t="n">
         <f aca="false">SUM(500-H97)</f>
-        <v>500</v>
+        <v>71</v>
       </c>
       <c r="J97" s="11" t="n">
         <f aca="false">H97-I97</f>
-        <v>-500</v>
+        <v>358</v>
       </c>
       <c r="K97" s="11"/>
       <c r="M97" s="18"/>
@@ -12880,14 +12911,16 @@
         <v>-500</v>
       </c>
       <c r="G98" s="9"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="6" t="n">
+        <v>457</v>
+      </c>
       <c r="I98" s="11" t="n">
         <f aca="false">SUM(500-H98)</f>
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="J98" s="11" t="n">
         <f aca="false">H98-I98</f>
-        <v>-500</v>
+        <v>414</v>
       </c>
       <c r="K98" s="11"/>
       <c r="M98" s="18"/>
@@ -12932,14 +12965,16 @@
         <v>-500</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="76"/>
+      <c r="H99" s="76" t="n">
+        <v>452</v>
+      </c>
       <c r="I99" s="11" t="n">
         <f aca="false">SUM(500-H99)</f>
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="J99" s="11" t="n">
         <f aca="false">H99-I99</f>
-        <v>-500</v>
+        <v>404</v>
       </c>
       <c r="K99" s="11"/>
       <c r="M99" s="18"/>
@@ -12984,14 +13019,16 @@
         <v>-500</v>
       </c>
       <c r="G100" s="9"/>
-      <c r="H100" s="6"/>
+      <c r="H100" s="6" t="n">
+        <v>492</v>
+      </c>
       <c r="I100" s="11" t="n">
         <f aca="false">SUM(500-H100)</f>
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="J100" s="11" t="n">
         <f aca="false">H100-I100</f>
-        <v>-500</v>
+        <v>484</v>
       </c>
       <c r="K100" s="11"/>
       <c r="M100" s="18"/>
@@ -13036,14 +13073,16 @@
         <v>-500</v>
       </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="6"/>
+      <c r="H101" s="6" t="n">
+        <v>469</v>
+      </c>
       <c r="I101" s="11" t="n">
         <f aca="false">SUM(500-H101)</f>
-        <v>500</v>
+        <v>31</v>
       </c>
       <c r="J101" s="11" t="n">
         <f aca="false">H101-I101</f>
-        <v>-500</v>
+        <v>438</v>
       </c>
       <c r="K101" s="11"/>
       <c r="M101" s="18"/>
@@ -13088,14 +13127,16 @@
         <v>-500</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="6"/>
+      <c r="H102" s="6" t="n">
+        <v>468</v>
+      </c>
       <c r="I102" s="11" t="n">
         <f aca="false">SUM(500-H102)</f>
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="J102" s="11" t="n">
         <f aca="false">H102-I102</f>
-        <v>-500</v>
+        <v>436</v>
       </c>
       <c r="K102" s="11"/>
       <c r="M102" s="18"/>
@@ -13140,14 +13181,16 @@
         <v>-500</v>
       </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="6" t="n">
+        <v>481</v>
+      </c>
       <c r="I103" s="11" t="n">
         <f aca="false">SUM(500-H103)</f>
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="J103" s="11" t="n">
         <f aca="false">H103-I103</f>
-        <v>-500</v>
+        <v>462</v>
       </c>
       <c r="K103" s="11"/>
       <c r="M103" s="18"/>
@@ -13192,14 +13235,16 @@
         <v>-500</v>
       </c>
       <c r="G104" s="9"/>
-      <c r="H104" s="6"/>
+      <c r="H104" s="6" t="n">
+        <v>465</v>
+      </c>
       <c r="I104" s="11" t="n">
         <f aca="false">SUM(500-H104)</f>
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="J104" s="11" t="n">
         <f aca="false">H104-I104</f>
-        <v>-500</v>
+        <v>430</v>
       </c>
       <c r="K104" s="11"/>
       <c r="M104" s="18"/>
@@ -13244,14 +13289,16 @@
         <v>-500</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="6" t="n">
+        <v>469</v>
+      </c>
       <c r="I105" s="11" t="n">
         <f aca="false">SUM(500-H105)</f>
-        <v>500</v>
+        <v>31</v>
       </c>
       <c r="J105" s="11" t="n">
         <f aca="false">H105-I105</f>
-        <v>-500</v>
+        <v>438</v>
       </c>
       <c r="K105" s="11"/>
       <c r="M105" s="18"/>
@@ -13296,14 +13343,16 @@
         <v>-500</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="6"/>
+      <c r="H106" s="6" t="n">
+        <v>438</v>
+      </c>
       <c r="I106" s="11" t="n">
         <f aca="false">SUM(500-H106)</f>
-        <v>500</v>
+        <v>62</v>
       </c>
       <c r="J106" s="11" t="n">
         <f aca="false">H106-I106</f>
-        <v>-500</v>
+        <v>376</v>
       </c>
       <c r="K106" s="11"/>
       <c r="M106" s="18"/>
@@ -13348,14 +13397,16 @@
         <v>-500</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="6" t="n">
+        <v>452</v>
+      </c>
       <c r="I107" s="11" t="n">
         <f aca="false">SUM(500-H107)</f>
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="J107" s="11" t="n">
         <f aca="false">H107-I107</f>
-        <v>-500</v>
+        <v>404</v>
       </c>
       <c r="K107" s="11"/>
       <c r="M107" s="18"/>
@@ -13400,14 +13451,16 @@
         <v>-500</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="6"/>
+      <c r="H108" s="6" t="n">
+        <v>468</v>
+      </c>
       <c r="I108" s="11" t="n">
         <f aca="false">SUM(500-H108)</f>
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="J108" s="11" t="n">
         <f aca="false">H108-I108</f>
-        <v>-500</v>
+        <v>436</v>
       </c>
       <c r="K108" s="11"/>
       <c r="M108" s="18"/>
@@ -13452,14 +13505,16 @@
         <v>-500</v>
       </c>
       <c r="G109" s="9"/>
-      <c r="H109" s="6"/>
+      <c r="H109" s="6" t="n">
+        <v>447</v>
+      </c>
       <c r="I109" s="11" t="n">
         <f aca="false">SUM(500-H109)</f>
-        <v>500</v>
+        <v>53</v>
       </c>
       <c r="J109" s="11" t="n">
         <f aca="false">H109-I109</f>
-        <v>-500</v>
+        <v>394</v>
       </c>
       <c r="K109" s="11"/>
       <c r="M109" s="18"/>
@@ -13504,14 +13559,16 @@
         <v>-500</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="6" t="n">
+        <v>407</v>
+      </c>
       <c r="I110" s="11" t="n">
         <f aca="false">SUM(500-H110)</f>
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="J110" s="11" t="n">
         <f aca="false">H110-I110</f>
-        <v>-500</v>
+        <v>314</v>
       </c>
       <c r="K110" s="11"/>
       <c r="M110" s="18"/>
@@ -13556,14 +13613,16 @@
         <v>-500</v>
       </c>
       <c r="G111" s="9"/>
-      <c r="H111" s="6"/>
+      <c r="H111" s="6" t="n">
+        <v>386</v>
+      </c>
       <c r="I111" s="11" t="n">
         <f aca="false">SUM(500-H111)</f>
-        <v>500</v>
+        <v>114</v>
       </c>
       <c r="J111" s="11" t="n">
         <f aca="false">H111-I111</f>
-        <v>-500</v>
+        <v>272</v>
       </c>
       <c r="K111" s="11"/>
       <c r="M111" s="18"/>
@@ -13608,14 +13667,16 @@
         <v>-500</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="6"/>
+      <c r="H112" s="6" t="n">
+        <v>354</v>
+      </c>
       <c r="I112" s="11" t="n">
         <f aca="false">SUM(500-H112)</f>
-        <v>500</v>
+        <v>146</v>
       </c>
       <c r="J112" s="11" t="n">
         <f aca="false">H112-I112</f>
-        <v>-500</v>
+        <v>208</v>
       </c>
       <c r="K112" s="11"/>
       <c r="M112" s="18"/>
@@ -13689,15 +13750,15 @@
       <c r="G114" s="81"/>
       <c r="H114" s="12" t="n">
         <f aca="false">SUM(H94:H112)</f>
-        <v>0</v>
+        <v>8430</v>
       </c>
       <c r="I114" s="14" t="n">
         <f aca="false">SUM(I94:I112)</f>
-        <v>9500</v>
+        <v>1070</v>
       </c>
       <c r="J114" s="13" t="n">
         <f aca="false">H114-I114</f>
-        <v>-9500</v>
+        <v>7360</v>
       </c>
       <c r="K114" s="13"/>
       <c r="M114" s="18"/>
@@ -15425,21 +15486,6 @@
         <f aca="false">S172-T172</f>
         <v>8</v>
       </c>
-      <c r="AG172" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH172" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI172" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ172" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK172" s="0" t="n">
-        <v>280</v>
-      </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="73" t="s">
@@ -15491,21 +15537,6 @@
         <f aca="false">S173-T173</f>
         <v>76</v>
       </c>
-      <c r="AG173" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH173" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI173" s="0" t="n">
-        <v>227</v>
-      </c>
-      <c r="AJ173" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK173" s="0" t="n">
-        <v>273</v>
-      </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="73" t="s">
@@ -15557,21 +15588,6 @@
         <f aca="false">S174-T174</f>
         <v>92</v>
       </c>
-      <c r="AG174" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH174" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI174" s="0" t="n">
-        <v>247</v>
-      </c>
-      <c r="AJ174" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK174" s="0" t="n">
-        <v>253</v>
-      </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="73" t="s">
@@ -15623,21 +15639,6 @@
         <f aca="false">S175-T175</f>
         <v>116</v>
       </c>
-      <c r="AG175" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH175" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI175" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ175" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK175" s="0" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="73" t="s">
@@ -15689,21 +15690,6 @@
         <f aca="false">S176-T176</f>
         <v>124</v>
       </c>
-      <c r="AG176" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH176" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI176" s="0" t="n">
-        <v>203</v>
-      </c>
-      <c r="AJ176" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK176" s="0" t="n">
-        <v>297</v>
-      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="73" t="s">
@@ -15755,21 +15741,6 @@
         <f aca="false">S177-T177</f>
         <v>108</v>
       </c>
-      <c r="AG177" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH177" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI177" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="AJ177" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK177" s="0" t="n">
-        <v>348</v>
-      </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="73" t="s">
@@ -15821,21 +15792,6 @@
         <f aca="false">S178-T178</f>
         <v>104</v>
       </c>
-      <c r="AG178" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH178" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI178" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="AJ178" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK178" s="0" t="n">
-        <v>358</v>
-      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="73" t="s">
@@ -15887,21 +15843,6 @@
         <f aca="false">S179-T179</f>
         <v>128</v>
       </c>
-      <c r="AG179" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH179" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI179" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="AJ179" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK179" s="0" t="n">
-        <v>387</v>
-      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="73" t="s">
@@ -15953,21 +15894,6 @@
         <f aca="false">S180-T180</f>
         <v>104</v>
       </c>
-      <c r="AG180" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH180" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI180" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="AJ180" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK180" s="0" t="n">
-        <v>428</v>
-      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="73" t="s">
@@ -16019,21 +15945,6 @@
         <f aca="false">S181-T181</f>
         <v>84</v>
       </c>
-      <c r="AG181" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH181" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI181" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AJ181" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK181" s="0" t="n">
-        <v>423</v>
-      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="73" t="s">
@@ -16085,21 +15996,6 @@
         <f aca="false">S182-T182</f>
         <v>156</v>
       </c>
-      <c r="AG182" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH182" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI182" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ182" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK182" s="0" t="n">
-        <v>390</v>
-      </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="73" t="s">
@@ -16151,21 +16047,6 @@
         <f aca="false">S183-T183</f>
         <v>82</v>
       </c>
-      <c r="AG183" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH183" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI183" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ183" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK183" s="0" t="n">
-        <v>435</v>
-      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="73" t="s">
@@ -16217,21 +16098,6 @@
         <f aca="false">S184-T184</f>
         <v>104</v>
       </c>
-      <c r="AG184" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH184" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI184" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="AJ184" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK184" s="0" t="n">
-        <v>438</v>
-      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="73" t="s">
@@ -16283,21 +16149,6 @@
         <f aca="false">S185-T185</f>
         <v>54</v>
       </c>
-      <c r="AG185" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH185" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI185" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="AJ185" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK185" s="0" t="n">
-        <v>451</v>
-      </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="73" t="s">
@@ -16349,21 +16200,6 @@
         <f aca="false">S186-T186</f>
         <v>60</v>
       </c>
-      <c r="AG186" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH186" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI186" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="AJ186" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK186" s="0" t="n">
-        <v>442</v>
-      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="73" t="s">
@@ -16415,21 +16251,6 @@
         <f aca="false">S187-T187</f>
         <v>12</v>
       </c>
-      <c r="AG187" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH187" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI187" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ187" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK187" s="0" t="n">
-        <v>425</v>
-      </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="73" t="s">
@@ -16480,21 +16301,6 @@
       <c r="U188" s="36" t="n">
         <f aca="false">S188-T188</f>
         <v>-22</v>
-      </c>
-      <c r="AG188" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH188" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI188" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="AJ188" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK188" s="0" t="n">
-        <v>426</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16532,21 +16338,6 @@
         <f aca="false">S189-T189</f>
         <v>14</v>
       </c>
-      <c r="AG189" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH189" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI189" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ189" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK189" s="0" t="n">
-        <v>433</v>
-      </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="80" t="s">
@@ -16587,21 +16378,6 @@
       <c r="S190" s="79"/>
       <c r="T190" s="78"/>
       <c r="U190" s="36"/>
-      <c r="AG190" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH190" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI190" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ190" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK190" s="0" t="n">
-        <v>415</v>
-      </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="60"/>
@@ -16642,18 +16418,6 @@
         <f aca="false">S191-T191</f>
         <v>1400</v>
       </c>
-      <c r="AH191" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI191" s="0" t="n">
-        <v>354</v>
-      </c>
-      <c r="AJ191" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK191" s="0" t="n">
-        <v>146</v>
-      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M192" s="18"/>
@@ -16665,145 +16429,16 @@
       <c r="S192" s="18"/>
       <c r="T192" s="18"/>
       <c r="U192" s="18"/>
-      <c r="AH192" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI192" s="0" t="n">
-        <v>386</v>
-      </c>
-      <c r="AJ192" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK192" s="0" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH193" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI193" s="0" t="n">
-        <v>407</v>
-      </c>
-      <c r="AJ193" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK193" s="0" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH194" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI194" s="0" t="n">
-        <v>447</v>
-      </c>
-      <c r="AJ194" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK194" s="0" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH195" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI195" s="0" t="n">
-        <v>468</v>
-      </c>
-      <c r="AJ195" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK195" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH196" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI196" s="0" t="n">
-        <v>452</v>
-      </c>
-      <c r="AJ196" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK196" s="0" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH197" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI197" s="0" t="n">
-        <v>438</v>
-      </c>
-      <c r="AJ197" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK197" s="0" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH198" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI198" s="0" t="n">
-        <v>469</v>
-      </c>
-      <c r="AJ198" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK198" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH199" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI199" s="0" t="n">
-        <v>465</v>
-      </c>
-      <c r="AJ199" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK199" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH200" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI200" s="0" t="n">
-        <v>481</v>
-      </c>
-      <c r="AJ200" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK200" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH201" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI201" s="0" t="n">
-        <v>468</v>
-      </c>
-      <c r="AJ201" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK201" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -16827,18 +16462,6 @@
       <c r="S202" s="18"/>
       <c r="T202" s="18"/>
       <c r="U202" s="18"/>
-      <c r="AH202" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI202" s="0" t="n">
-        <v>469</v>
-      </c>
-      <c r="AJ202" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK202" s="0" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="203" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="6" t="s">
@@ -16877,18 +16500,6 @@
       </c>
       <c r="T203" s="68"/>
       <c r="U203" s="18"/>
-      <c r="AH203" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI203" s="0" t="n">
-        <v>492</v>
-      </c>
-      <c r="AJ203" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK203" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="7"/>
@@ -16923,18 +16534,6 @@
       <c r="U204" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AH204" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI204" s="0" t="n">
-        <v>452</v>
-      </c>
-      <c r="AJ204" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK204" s="0" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="73" t="s">
@@ -16970,18 +16569,6 @@
       <c r="S205" s="36"/>
       <c r="T205" s="36"/>
       <c r="U205" s="36"/>
-      <c r="AH205" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI205" s="0" t="n">
-        <v>457</v>
-      </c>
-      <c r="AJ205" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK205" s="0" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="73" t="s">
@@ -17033,18 +16620,6 @@
         <f aca="false">S206-T206</f>
         <v>-290</v>
       </c>
-      <c r="AH206" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI206" s="0" t="n">
-        <v>429</v>
-      </c>
-      <c r="AJ206" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK206" s="0" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="73" t="s">
@@ -17096,18 +16671,6 @@
         <f aca="false">S207-T207</f>
         <v>-404</v>
       </c>
-      <c r="AH207" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI207" s="0" t="n">
-        <v>431</v>
-      </c>
-      <c r="AJ207" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK207" s="0" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="73" t="s">
@@ -17159,18 +16722,6 @@
         <f aca="false">S208-T208</f>
         <v>-402</v>
       </c>
-      <c r="AH208" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI208" s="0" t="n">
-        <v>429</v>
-      </c>
-      <c r="AJ208" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK208" s="0" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="73" t="s">
@@ -17222,18 +16773,6 @@
         <f aca="false">S209-T209</f>
         <v>-426</v>
       </c>
-      <c r="AH209" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI209" s="0" t="n">
-        <v>436</v>
-      </c>
-      <c r="AJ209" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK209" s="0" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="73" t="s">
@@ -17285,18 +16824,6 @@
         <f aca="false">S210-T210</f>
         <v>-450</v>
       </c>
-      <c r="AH210" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI210" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="AJ210" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK210" s="0" t="n">
-        <v>371</v>
-      </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="73" t="s">
@@ -17348,18 +16875,6 @@
         <f aca="false">S211-T211</f>
         <v>-458</v>
       </c>
-      <c r="AH211" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI211" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="AJ211" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK211" s="0" t="n">
-        <v>409</v>
-      </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="73" t="s">
@@ -17411,18 +16926,6 @@
         <f aca="false">S212-T212</f>
         <v>-404</v>
       </c>
-      <c r="AH212" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI212" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="AJ212" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK212" s="0" t="n">
-        <v>443</v>
-      </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="73" t="s">
@@ -17474,18 +16977,6 @@
         <f aca="false">S213-T213</f>
         <v>-462</v>
       </c>
-      <c r="AH213" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI213" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AJ213" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK213" s="0" t="n">
-        <v>422</v>
-      </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="73" t="s">
@@ -17537,18 +17028,6 @@
         <f aca="false">S214-T214</f>
         <v>-372</v>
       </c>
-      <c r="AH214" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI214" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="AJ214" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK214" s="0" t="n">
-        <v>383</v>
-      </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="73" t="s">
@@ -17600,18 +17079,6 @@
         <f aca="false">S215-T215</f>
         <v>-446</v>
       </c>
-      <c r="AH215" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI215" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ215" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK215" s="0" t="n">
-        <v>433</v>
-      </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="73" t="s">
@@ -17663,18 +17130,6 @@
         <f aca="false">S216-T216</f>
         <v>-480</v>
       </c>
-      <c r="AH216" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI216" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AJ216" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK216" s="0" t="n">
-        <v>423</v>
-      </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="73" t="s">
@@ -17726,18 +17181,6 @@
         <f aca="false">S217-T217</f>
         <v>-484</v>
       </c>
-      <c r="AH217" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI217" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="AJ217" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK217" s="0" t="n">
-        <v>409</v>
-      </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="73" t="s">
@@ -17789,18 +17232,6 @@
         <f aca="false">S218-T218</f>
         <v>-474</v>
       </c>
-      <c r="AH218" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI218" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ218" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK218" s="0" t="n">
-        <v>363</v>
-      </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="73" t="s">
@@ -17852,18 +17283,6 @@
         <f aca="false">S219-T219</f>
         <v>-484</v>
       </c>
-      <c r="AH219" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI219" s="0" t="n">
-        <v>118</v>
-      </c>
-      <c r="AJ219" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK219" s="0" t="n">
-        <v>382</v>
-      </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="73" t="s">
@@ -17915,18 +17334,6 @@
         <f aca="false">S220-T220</f>
         <v>-476</v>
       </c>
-      <c r="AH220" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI220" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ220" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK220" s="0" t="n">
-        <v>325</v>
-      </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="73" t="s">
@@ -17978,18 +17385,6 @@
         <f aca="false">S221-T221</f>
         <v>-498</v>
       </c>
-      <c r="AH221" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI221" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="AJ221" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK221" s="0" t="n">
-        <v>342</v>
-      </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="73" t="s">
@@ -18041,18 +17436,6 @@
         <f aca="false">S222-T222</f>
         <v>-484</v>
       </c>
-      <c r="AH222" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI222" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="AJ222" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK222" s="0" t="n">
-        <v>343</v>
-      </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="73" t="s">
@@ -18103,18 +17486,6 @@
       <c r="U223" s="36" t="n">
         <f aca="false">S223-T223</f>
         <v>-484</v>
-      </c>
-      <c r="AH223" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI223" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ223" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK223" s="0" t="n">
-        <v>325</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18152,18 +17523,6 @@
         <f aca="false">S224-T224</f>
         <v>-398</v>
       </c>
-      <c r="AH224" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI224" s="0" t="n">
-        <v>213</v>
-      </c>
-      <c r="AJ224" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK224" s="0" t="n">
-        <v>287</v>
-      </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="80" t="s">
@@ -18204,18 +17563,6 @@
       <c r="S225" s="79"/>
       <c r="T225" s="78"/>
       <c r="U225" s="36"/>
-      <c r="AH225" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI225" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="AJ225" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK225" s="0" t="n">
-        <v>285</v>
-      </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="60"/>
@@ -18256,18 +17603,6 @@
         <f aca="false">S226-T226</f>
         <v>-8376</v>
       </c>
-      <c r="AH226" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI226" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="AJ226" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK226" s="0" t="n">
-        <v>289</v>
-      </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M227" s="18"/>
@@ -18279,33 +17614,8 @@
       <c r="S227" s="18"/>
       <c r="T227" s="18"/>
       <c r="U227" s="18"/>
-      <c r="AH227" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI227" s="0" t="n">
-        <v>222</v>
-      </c>
-      <c r="AJ227" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK227" s="0" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH228" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI228" s="0" t="n">
-        <v>233</v>
-      </c>
-      <c r="AJ228" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK228" s="0" t="n">
-        <v>267</v>
-      </c>
-    </row>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
